--- a/examples/swiss_passport/digital_passport.xlsx
+++ b/examples/swiss_passport/digital_passport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" state="visible" r:id="rId2"/>
@@ -801,7 +801,7 @@
     <t xml:space="preserve">utf-8</t>
   </si>
   <si>
-    <t xml:space="preserve">SAI:EWSSp1MZQfVWl-u4l4eDprRp-bLE-xLe0gSTNVwkuqNA</t>
+    <t xml:space="preserve">SAI:EGyWgdQR9dW_I5oHlHBMoO9AA_eMeb2p3XzcCRCBbKCM</t>
   </si>
   <si>
     <t xml:space="preserve">M</t>
@@ -849,7 +849,7 @@
     <t xml:space="preserve">nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">SAI:EcOqelFTDay0reu_CesOIUfWVF7htg4IvSOrrXuIMaXU</t>
+    <t xml:space="preserve">SAI:EmXip-eMwEeLWH9_AfH642_Zb-oGZXk7jI49qafz_XrU</t>
   </si>
   <si>
     <t xml:space="preserve">dateOfBirth</t>
@@ -933,7 +933,7 @@
     <t xml:space="preserve">Mandatory header|Issuing State or organization (in full)</t>
   </si>
   <si>
-    <t xml:space="preserve">SAI:ECfBoOwdcHhQfNtWA5qTKOo9egoxHKXxby6R8Jujpk-o</t>
+    <t xml:space="preserve">SAI:Els6NxGvFfyL5aiBWR3j7YiaS7F4j4O-F0EIlZu-dO0g</t>
   </si>
   <si>
     <t xml:space="preserve">The name of the State or organization responsible for issuing the MRP shall be displayed in full.</t>
@@ -957,7 +957,7 @@
     <t xml:space="preserve">Mandatory header|Issuing State or organization (in code)</t>
   </si>
   <si>
-    <t xml:space="preserve">SAI:EnmO60xL2IsIv-_AC2PgLdJtzqsfuNqa8BihsiNWgz5o</t>
+    <t xml:space="preserve">SAI:EdxqlME_1Zt0Y_YJ3c0uMIzd41mSDATbH-rp7ElqhNes</t>
   </si>
   <si>
     <t xml:space="preserve">As abbreviated in the three-letter code specified in Doc 9303-3.</t>
@@ -990,7 +990,7 @@
     <t xml:space="preserve">Mandatory and optional personal data elements|Nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">SAI:EAr0uvi1743P2VXXqd08a-yX8K_aejHCkdjaW8lWZ_xw</t>
+    <t xml:space="preserve">SAI:EXdSkFdYnAzZ2U2Qyo-q76CJMYelgV9NXN8GhmtY2ErY</t>
   </si>
   <si>
     <t xml:space="preserve">For details see Doc 9303-3.</t>
@@ -1059,7 +1059,7 @@
     <t xml:space="preserve">Mandatory identification feature|Identification feature</t>
   </si>
   <si>
-    <t xml:space="preserve">This field shall contain a portrait of the holder. The portrait shall not be larger than 45.0 mm x 35.0 mm_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000B_(1.77 in x 1.38 in) nor smaller than 32.0 mm x 26.0 mm (1.26 in x 1.02 in). The position of the field concerned shall be aligned to the left of Zones II, III and IV. See Doc 9303-3 for additional specifications for the portrait.</t>
+    <t xml:space="preserve">This field shall contain a portrait of the holder. The portrait shall not be larger than 45.0 mm x 35.0 mm_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000B_(1.77 in x 1.38 in) nor smaller than 32.0 mm x 26.0 mm (1.26 in x 1.02 in). The position of the field concerned shall be aligned to the left of Zones II, III and IV. See Doc 9303-3 for additional specifications for the portrait.</t>
   </si>
   <si>
     <t xml:space="preserve">Optional data elements|Optional data elements</t>
@@ -1101,7 +1101,7 @@
     <t xml:space="preserve">En-tête obligatoire|État ou organisme émetteur (au complet)</t>
   </si>
   <si>
-    <t xml:space="preserve">SAI:EL_PI1HJ7qyGdT3yrH7kXqwWAv0-lxGLXEtzN8C6zQt4</t>
+    <t xml:space="preserve">SAI:Emj736NIuEKdR-3sfXB4wfPokFzgE7uiRm6EXKaJRyE4</t>
   </si>
   <si>
     <t xml:space="preserve">Le nom de l'État ou de l'organisme responsable de la délivrance du MRP doit être indiqué en toutes lettres.</t>
@@ -1155,7 +1155,7 @@
     <t xml:space="preserve">Éléments de données personnelles obligatoires et facultatifs|Nationalité</t>
   </si>
   <si>
-    <t xml:space="preserve">SAI:E3iUl-Nc2Tb1d-LBuCsd1JJJH1ppjFtIxYyX7_VB_d3c</t>
+    <t xml:space="preserve">SAI:Ez_5-oggNDr7gUFaz3GSof1y579gK0MKXIVesRjGzyqY</t>
   </si>
   <si>
     <t xml:space="preserve">Pour plus de détails, voir Doc 9303-3.</t>
@@ -2873,9 +2873,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>121320</xdr:colOff>
+      <xdr:colOff>120960</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2889,7 +2889,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4060440" y="281880"/>
-          <a:ext cx="2902320" cy="822600"/>
+          <a:ext cx="2901960" cy="822240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4488,8 +4488,8 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4585,7 +4585,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" s="66" customFormat="true" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="66" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="59" t="s">
         <v>88</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="I11" s="72"/>
       <c r="J11" s="74"/>
     </row>
-    <row r="12" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="77" t="s">
         <v>88</v>
       </c>
@@ -5100,7 +5100,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5164,7 +5164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="94" t="s">
         <v>4</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="98" t="s">
         <v>4</v>
       </c>
@@ -5570,8 +5570,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5629,7 +5629,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="94" t="s">
         <v>188</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="98" t="s">
         <v>188</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="98" t="s">
         <v>188</v>
       </c>

--- a/examples/swiss_passport/digital_passport.xlsx
+++ b/examples/swiss_passport/digital_passport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="236">
   <si>
     <t xml:space="preserve">OCA DATA CAPTURE SPECIFICATION</t>
   </si>
@@ -855,6 +855,9 @@
     <t xml:space="preserve">dateOfBirth</t>
   </si>
   <si>
+    <t xml:space="preserve">DateTime</t>
+  </si>
+  <si>
     <t xml:space="preserve">YYnMMnDD</t>
   </si>
   <si>
@@ -1059,7 +1062,7 @@
     <t xml:space="preserve">Mandatory identification feature|Identification feature</t>
   </si>
   <si>
-    <t xml:space="preserve">This field shall contain a portrait of the holder. The portrait shall not be larger than 45.0 mm x 35.0 mm_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000B_(1.77 in x 1.38 in) nor smaller than 32.0 mm x 26.0 mm (1.26 in x 1.02 in). The position of the field concerned shall be aligned to the left of Zones II, III and IV. See Doc 9303-3 for additional specifications for the portrait.</t>
+    <t xml:space="preserve">This field shall contain a portrait of the holder. The portrait shall not be larger than 45.0 mm x 35.0 mm_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000B_(1.77 in x 1.38 in) nor smaller than 32.0 mm x 26.0 mm (1.26 in x 1.02 in). The position of the field concerned shall be aligned to the left of Zones II, III and IV. See Doc 9303-3 for additional specifications for the portrait.</t>
   </si>
   <si>
     <t xml:space="preserve">Optional data elements|Optional data elements</t>
@@ -1239,7 +1242,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]DDDD&quot;, &quot;MMMM\ DD&quot;, &quot;YYYY"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="21">
@@ -2288,14 +2291,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <dxfs count="50">
     <dxf>
@@ -2873,9 +2876,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>120960</xdr:colOff>
+      <xdr:colOff>120600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2888,13 +2891,13 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4060440" y="281880"/>
-          <a:ext cx="2901960" cy="822240"/>
+          <a:off x="4060800" y="282240"/>
+          <a:ext cx="2901240" cy="821520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -2905,25 +2908,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:D59"/>
+  <dimension ref="B1:D973"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="91.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="14.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4317,162 +4320,262 @@
     <mergeCell ref="B58:D58"/>
   </mergeCells>
   <conditionalFormatting sqref="F24:F43 C45:C46">
-    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="0"/>
+    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="0">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C24)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F43 C45:C46">
-    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="1"/>
+    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="1">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C24)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F43 C45:C46">
-    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="2"/>
+    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="2">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C24)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56 C59:C973 C45:C46">
-    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="3"/>
+    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="3">
+      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C45)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56 C59:C973">
-    <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="4"/>
+    <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="4">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C56)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56 C59:C973">
-    <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="5"/>
+    <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="5">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C56)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56 C59:C973">
-    <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="6"/>
+    <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="6">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C56)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="7"/>
+    <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="7">
+      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C44)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" priority="10" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="8"/>
+    <cfRule type="containsText" priority="10" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="8">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C44)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" priority="11" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="9"/>
+    <cfRule type="containsText" priority="11" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="9">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C44)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsText" priority="12" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="10"/>
+    <cfRule type="containsText" priority="12" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="10">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C44)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="containsText" priority="13" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="11"/>
+    <cfRule type="containsText" priority="13" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="11">
+      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C27)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="containsText" priority="14" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="12"/>
+    <cfRule type="containsText" priority="14" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="12">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C27)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="containsText" priority="15" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="13"/>
+    <cfRule type="containsText" priority="15" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="13">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C27)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="containsText" priority="16" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="14"/>
+    <cfRule type="containsText" priority="16" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="14">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C27)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="containsText" priority="17" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="15"/>
+    <cfRule type="containsText" priority="17" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="15">
+      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C28)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="containsText" priority="18" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="16"/>
+    <cfRule type="containsText" priority="18" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="16">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C28)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="containsText" priority="19" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="17"/>
+    <cfRule type="containsText" priority="19" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="17">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C28)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="containsText" priority="20" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="18"/>
+    <cfRule type="containsText" priority="20" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="18">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C28)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" priority="21" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="19"/>
+    <cfRule type="containsText" priority="21" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="19">
+      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C25)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" priority="22" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="20"/>
+    <cfRule type="containsText" priority="22" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="20">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C25)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" priority="23" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="21"/>
+    <cfRule type="containsText" priority="23" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="21">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C25)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" priority="24" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="22"/>
+    <cfRule type="containsText" priority="24" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="22">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C25)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" priority="25" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="23"/>
+    <cfRule type="containsText" priority="25" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="23">
+      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C33)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" priority="26" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="24"/>
+    <cfRule type="containsText" priority="26" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="24">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C33)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" priority="27" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="25"/>
+    <cfRule type="containsText" priority="27" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="25">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C33)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" priority="28" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="26"/>
+    <cfRule type="containsText" priority="28" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="26">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C33)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" priority="29" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="27"/>
+    <cfRule type="containsText" priority="29" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="27">
+      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C34)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" priority="30" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="28"/>
+    <cfRule type="containsText" priority="30" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="28">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C34)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" priority="31" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="29"/>
+    <cfRule type="containsText" priority="31" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="29">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C34)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" priority="32" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="30"/>
+    <cfRule type="containsText" priority="32" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="30">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C34)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="containsText" priority="33" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="31"/>
+    <cfRule type="containsText" priority="33" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="31">
+      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C35)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="containsText" priority="34" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="32"/>
+    <cfRule type="containsText" priority="34" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="32">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C35)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="containsText" priority="35" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="33"/>
+    <cfRule type="containsText" priority="35" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="33">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C35)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="containsText" priority="36" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="34"/>
+    <cfRule type="containsText" priority="36" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="34">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C35)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C43 C24">
-    <cfRule type="containsText" priority="37" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="35"/>
+    <cfRule type="containsText" priority="37" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="35">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C24)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C43 C24">
-    <cfRule type="containsText" priority="38" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="36"/>
+    <cfRule type="containsText" priority="38" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="36">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C24)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C43 C24">
-    <cfRule type="containsText" priority="39" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="37"/>
+    <cfRule type="containsText" priority="39" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="37">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C24)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20 C36:C43 C24">
-    <cfRule type="containsText" priority="40" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="38"/>
+    <cfRule type="containsText" priority="40" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="38">
+      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C19)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="containsText" priority="41" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="39"/>
+    <cfRule type="containsText" priority="41" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="39">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C19)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="containsText" priority="42" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="40"/>
+    <cfRule type="containsText" priority="42" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="40">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C19)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="containsText" priority="43" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="41"/>
+    <cfRule type="containsText" priority="43" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="41">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C19)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" priority="44" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="42"/>
+    <cfRule type="containsText" priority="44" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="42">
+      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C32)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" priority="45" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="43"/>
+    <cfRule type="containsText" priority="45" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="43">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C32)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" priority="46" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="44"/>
+    <cfRule type="containsText" priority="46" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="44">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C32)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" priority="47" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="45"/>
+    <cfRule type="containsText" priority="47" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="45">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C32)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" priority="48" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="46"/>
+    <cfRule type="containsText" priority="48" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="CONDITIONAL" dxfId="46">
+      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C31)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" priority="49" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="47"/>
+    <cfRule type="containsText" priority="49" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="NOT NEEDED" dxfId="47">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C31)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" priority="50" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="48"/>
+    <cfRule type="containsText" priority="50" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="OPTIONAL" dxfId="48">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C31)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" priority="51" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="49"/>
+    <cfRule type="containsText" priority="51" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="REQUIRED" dxfId="49">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C31)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1" display="paul.knowles@humancolossus.org"/>
     <hyperlink ref="B57" r:id="rId2" display="© The Human Colossus Foundation 2022. Some rights reserved. This work is available under the CC BY-NC-SA 3.0 IGO licence."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4482,17 +4585,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.83"/>
@@ -4505,10 +4608,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="46" width="14.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="10.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4806,7 +4907,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="D13" s="70" t="s">
         <v>101</v>
@@ -4815,7 +4916,7 @@
         <v>90</v>
       </c>
       <c r="F13" s="72" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="73"/>
       <c r="H13" s="72"/>
@@ -4827,7 +4928,7 @@
         <v>88</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" s="69" t="s">
         <v>56</v>
@@ -4839,7 +4940,7 @@
         <v>90</v>
       </c>
       <c r="F14" s="72" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G14" s="78"/>
       <c r="H14" s="72"/>
@@ -4851,7 +4952,7 @@
         <v>88</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" s="69" t="s">
         <v>56</v>
@@ -4862,13 +4963,13 @@
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H15" s="72"/>
       <c r="I15" s="72"/>
       <c r="J15" s="74"/>
       <c r="N15" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4876,7 +4977,7 @@
         <v>88</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C16" s="69" t="s">
         <v>56</v>
@@ -4898,7 +4999,7 @@
         <v>88</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" s="69" t="s">
         <v>56</v>
@@ -4915,10 +5016,10 @@
       <c r="I17" s="72"/>
       <c r="J17" s="74"/>
       <c r="L17" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4926,17 +5027,17 @@
         <v>88</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="D18" s="70"/>
       <c r="E18" s="71" t="s">
         <v>90</v>
       </c>
       <c r="F18" s="72" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" s="78"/>
       <c r="H18" s="72"/>
@@ -4948,7 +5049,7 @@
         <v>88</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" s="69" t="s">
         <v>56</v>
@@ -4968,17 +5069,17 @@
         <v>88</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="D20" s="70"/>
       <c r="E20" s="71" t="s">
         <v>90</v>
       </c>
       <c r="F20" s="72" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G20" s="78"/>
       <c r="H20" s="72"/>
@@ -4990,7 +5091,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="69" t="s">
         <v>56</v>
@@ -5012,19 +5113,19 @@
         <v>88</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D22" s="70" t="s">
         <v>101</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F22" s="72" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G22" s="78"/>
       <c r="H22" s="72"/>
@@ -5036,19 +5137,19 @@
         <v>88</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D23" s="70" t="s">
         <v>101</v>
       </c>
       <c r="E23" s="71" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23" s="72" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G23" s="78"/>
       <c r="H23" s="72"/>
@@ -5060,7 +5161,7 @@
         <v>88</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="80" t="s">
         <v>56</v>
@@ -5083,8 +5184,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5093,7 +5194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5103,7 +5204,7 @@
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.83"/>
@@ -5117,7 +5218,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="94.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="95.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="75.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5126,10 +5226,10 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="89" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5138,18 +5238,18 @@
       <c r="C2" s="92"/>
       <c r="D2" s="52"/>
       <c r="E2" s="55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="93" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C3" s="89" t="s">
         <v>23</v>
@@ -5169,19 +5269,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="59" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F4" s="96" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5189,19 +5289,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E5" s="100" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5209,17 +5309,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E6" s="100"/>
       <c r="F6" s="68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5227,19 +5327,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C7" s="68" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E7" s="100" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5247,17 +5347,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5265,17 +5365,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E9" s="100"/>
       <c r="F9" s="68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,17 +5383,17 @@
         <v>4</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="68" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,17 +5401,17 @@
         <v>4</v>
       </c>
       <c r="B11" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5319,19 +5419,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" s="68" t="s">
         <v>106</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E12" s="100" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5339,17 +5439,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E13" s="100"/>
       <c r="F13" s="68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,17 +5457,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E14" s="100"/>
       <c r="F14" s="68" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5375,19 +5475,19 @@
         <v>4</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" s="68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E15" s="100" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5395,17 +5495,17 @@
         <v>4</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E16" s="100"/>
       <c r="F16" s="68" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,17 +5513,17 @@
         <v>4</v>
       </c>
       <c r="B17" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E17" s="100"/>
       <c r="F17" s="68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5431,17 +5531,17 @@
         <v>4</v>
       </c>
       <c r="B18" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E18" s="100"/>
       <c r="F18" s="68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5449,17 +5549,17 @@
         <v>4</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E19" s="100"/>
       <c r="F19" s="68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5467,17 +5567,17 @@
         <v>4</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E20" s="100"/>
       <c r="F20" s="68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5485,17 +5585,17 @@
         <v>4</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E21" s="100"/>
       <c r="F21" s="68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5503,17 +5603,17 @@
         <v>4</v>
       </c>
       <c r="B22" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E22" s="100"/>
       <c r="F22" s="68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,17 +5621,17 @@
         <v>4</v>
       </c>
       <c r="B23" s="99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E23" s="100"/>
       <c r="F23" s="68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5539,23 +5639,23 @@
         <v>4</v>
       </c>
       <c r="B24" s="102" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D24" s="79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E24" s="103"/>
       <c r="F24" s="79" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5564,17 +5664,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.33"/>
@@ -5582,7 +5682,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="82.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5591,10 +5690,10 @@
       <c r="C1" s="88"/>
       <c r="D1" s="88"/>
       <c r="E1" s="93" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F1" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5603,424 +5702,424 @@
       <c r="C2" s="105"/>
       <c r="D2" s="91"/>
       <c r="E2" s="106" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F2" s="107" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="93" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E3" s="93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F3" s="104" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C4" s="59" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="96" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F4" s="96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E5" s="100" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E6" s="100"/>
       <c r="F6" s="68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C7" s="68" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E7" s="100" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B9" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E9" s="100"/>
       <c r="F9" s="68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C10" s="68" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B11" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C12" s="68" t="s">
         <v>106</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E12" s="100" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E13" s="100"/>
       <c r="F13" s="68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B14" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E14" s="100"/>
       <c r="F14" s="68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" s="68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E15" s="100" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E16" s="100"/>
       <c r="F16" s="68" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E17" s="100"/>
       <c r="F17" s="68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B18" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E18" s="100"/>
       <c r="F18" s="68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E19" s="100"/>
       <c r="F19" s="68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E20" s="100"/>
       <c r="F20" s="68" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E21" s="100"/>
       <c r="F21" s="68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E22" s="100"/>
       <c r="F22" s="68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B23" s="99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E23" s="100"/>
       <c r="F23" s="68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="101" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B24" s="102" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D24" s="79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E24" s="103"/>
       <c r="F24" s="79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/examples/swiss_passport/digital_passport.xlsx
+++ b/examples/swiss_passport/digital_passport.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="234">
   <si>
     <t xml:space="preserve">OCA DATA CAPTURE SPECIFICATION</t>
   </si>
@@ -873,9 +873,6 @@
     <t xml:space="preserve">F|M|X</t>
   </si>
   <si>
-    <t xml:space="preserve">F:K|X:unknown</t>
-  </si>
-  <si>
     <t xml:space="preserve">placeOfBirth</t>
   </si>
   <si>
@@ -885,9 +882,6 @@
     <t xml:space="preserve">SI|cm</t>
   </si>
   <si>
-    <t xml:space="preserve">height</t>
-  </si>
-  <si>
     <t xml:space="preserve">dateOfIssue</t>
   </si>
   <si>
@@ -1062,7 +1056,7 @@
     <t xml:space="preserve">Mandatory identification feature|Identification feature</t>
   </si>
   <si>
-    <t xml:space="preserve">This field shall contain a portrait of the holder. The portrait shall not be larger than 45.0 mm x 35.0 mm_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000B_(1.77 in x 1.38 in) nor smaller than 32.0 mm x 26.0 mm (1.26 in x 1.02 in). The position of the field concerned shall be aligned to the left of Zones II, III and IV. See Doc 9303-3 for additional specifications for the portrait.</t>
+    <t xml:space="preserve">This field shall contain a portrait of the holder. The portrait shall not be larger than 45.0 mm x 35.0 mm_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000B_(1.77 in x 1.38 in) nor smaller than 32.0 mm x 26.0 mm (1.26 in x 1.02 in). The position of the field concerned shall be aligned to the left of Zones II, III and IV. See Doc 9303-3 for additional specifications for the portrait.</t>
   </si>
   <si>
     <t xml:space="preserve">Optional data elements|Optional data elements</t>
@@ -2876,9 +2870,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>120600</xdr:colOff>
+      <xdr:colOff>120240</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2892,7 +2886,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4060800" y="282240"/>
-          <a:ext cx="2901240" cy="821520"/>
+          <a:ext cx="2900880" cy="821160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4591,8 +4585,8 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4968,16 +4962,13 @@
       <c r="H15" s="72"/>
       <c r="I15" s="72"/>
       <c r="J15" s="74"/>
-      <c r="N15" s="0" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="77" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="69" t="s">
         <v>56</v>
@@ -4999,7 +4990,7 @@
         <v>88</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="69" t="s">
         <v>56</v>
@@ -5016,10 +5007,7 @@
       <c r="I17" s="72"/>
       <c r="J17" s="74"/>
       <c r="L17" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5027,7 +5015,7 @@
         <v>88</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C18" s="69" t="s">
         <v>109</v>
@@ -5049,7 +5037,7 @@
         <v>88</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19" s="69" t="s">
         <v>56</v>
@@ -5069,7 +5057,7 @@
         <v>88</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C20" s="69" t="s">
         <v>109</v>
@@ -5091,7 +5079,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C21" s="69" t="s">
         <v>56</v>
@@ -5113,19 +5101,19 @@
         <v>88</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D22" s="70" t="s">
         <v>101</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F22" s="72" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G22" s="78"/>
       <c r="H22" s="72"/>
@@ -5137,19 +5125,19 @@
         <v>88</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="70" t="s">
         <v>101</v>
       </c>
       <c r="E23" s="71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F23" s="72" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G23" s="78"/>
       <c r="H23" s="72"/>
@@ -5161,7 +5149,7 @@
         <v>88</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C24" s="80" t="s">
         <v>56</v>
@@ -5226,10 +5214,10 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="89" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5238,18 +5226,18 @@
       <c r="C2" s="92"/>
       <c r="D2" s="52"/>
       <c r="E2" s="55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="89" t="s">
         <v>23</v>
@@ -5269,19 +5257,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="59" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="96" t="s">
         <v>135</v>
-      </c>
-      <c r="E4" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="96" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5289,19 +5277,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="68" t="s">
         <v>138</v>
-      </c>
-      <c r="E5" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5309,17 +5297,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E6" s="100"/>
       <c r="F6" s="68" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5327,19 +5315,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="68" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="68" t="s">
         <v>143</v>
-      </c>
-      <c r="E7" s="100" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,17 +5335,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5365,17 +5353,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E9" s="100"/>
       <c r="F9" s="68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5383,17 +5371,17 @@
         <v>4</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="68" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="68" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5401,17 +5389,17 @@
         <v>4</v>
       </c>
       <c r="B11" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,19 +5407,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="68" t="s">
         <v>106</v>
       </c>
       <c r="D12" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="68" t="s">
         <v>154</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5439,17 +5427,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E13" s="100"/>
       <c r="F13" s="68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5457,17 +5445,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="68" t="s">
         <v>111</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E14" s="100"/>
       <c r="F14" s="68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5475,19 +5463,19 @@
         <v>4</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="68" t="s">
         <v>113</v>
       </c>
       <c r="D15" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="68" t="s">
         <v>161</v>
-      </c>
-      <c r="E15" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5495,17 +5483,17 @@
         <v>4</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E16" s="100"/>
       <c r="F16" s="68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5513,17 +5501,17 @@
         <v>4</v>
       </c>
       <c r="B17" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E17" s="100"/>
       <c r="F17" s="68" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,17 +5519,17 @@
         <v>4</v>
       </c>
       <c r="B18" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E18" s="100"/>
       <c r="F18" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5549,17 +5537,17 @@
         <v>4</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E19" s="100"/>
       <c r="F19" s="68" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5567,17 +5555,17 @@
         <v>4</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E20" s="100"/>
       <c r="F20" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5585,17 +5573,17 @@
         <v>4</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E21" s="100"/>
       <c r="F21" s="68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5603,17 +5591,17 @@
         <v>4</v>
       </c>
       <c r="B22" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E22" s="100"/>
       <c r="F22" s="68" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5621,17 +5609,17 @@
         <v>4</v>
       </c>
       <c r="B23" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E23" s="100"/>
       <c r="F23" s="68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5639,17 +5627,17 @@
         <v>4</v>
       </c>
       <c r="B24" s="102" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D24" s="79" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E24" s="103"/>
       <c r="F24" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5690,10 +5678,10 @@
       <c r="C1" s="88"/>
       <c r="D1" s="88"/>
       <c r="E1" s="93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F1" s="104" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5702,418 +5690,418 @@
       <c r="C2" s="105"/>
       <c r="D2" s="91"/>
       <c r="E2" s="106" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F2" s="107" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="D3" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="E3" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="F3" s="104" t="s">
         <v>186</v>
-      </c>
-      <c r="E3" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C4" s="59" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="96" t="s">
         <v>191</v>
-      </c>
-      <c r="E4" s="97" t="s">
-        <v>192</v>
-      </c>
-      <c r="F4" s="96" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="68" t="s">
         <v>194</v>
-      </c>
-      <c r="E5" s="100" t="s">
-        <v>195</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E6" s="100"/>
       <c r="F6" s="68" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="68" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E7" s="100" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="68" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="68" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B9" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E9" s="100"/>
       <c r="F9" s="68" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C10" s="68" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="68" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="68" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C12" s="68" t="s">
         <v>106</v>
       </c>
       <c r="D12" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="68" t="s">
         <v>209</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>210</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E13" s="100"/>
       <c r="F13" s="68" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B14" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" s="68" t="s">
         <v>111</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E14" s="100"/>
       <c r="F14" s="68" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15" s="68" t="s">
         <v>113</v>
       </c>
       <c r="D15" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="F15" s="68" t="s">
         <v>216</v>
-      </c>
-      <c r="E15" s="100" t="s">
-        <v>217</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E16" s="100"/>
       <c r="F16" s="68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E17" s="100"/>
       <c r="F17" s="68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B18" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E18" s="100"/>
       <c r="F18" s="68" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E19" s="100"/>
       <c r="F19" s="68" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E20" s="100"/>
       <c r="F20" s="68" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E21" s="100"/>
       <c r="F21" s="68" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B22" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E22" s="100"/>
       <c r="F22" s="68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B23" s="99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E23" s="100"/>
       <c r="F23" s="68" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="101" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B24" s="102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D24" s="79" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E24" s="103"/>
       <c r="F24" s="79" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/examples/swiss_passport/digital_passport.xlsx
+++ b/examples/swiss_passport/digital_passport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="244">
   <si>
     <t xml:space="preserve">OCA DATA CAPTURE SPECIFICATION</t>
   </si>
@@ -771,25 +771,46 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">OL: Conditional [Condition]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OL: Conditional [Dependencies]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OL: Cardinality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OL: Conformance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OL: Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OL: Attribute Mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OL: Entry Code Mapping</t>
+    <t xml:space="preserve">CB-CL: Classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-AN: Attribute Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-AT: Attribute Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-FA: Flagged Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-CH: Character Encoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-FT: Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-EC: Entry Codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-CC: Conditional [Condition]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-CD: Conditional [Dependencies]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-CR: Cardinality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-CN: Conformance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-UT: Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-AM: Attribute Mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-EM: Entry Code Mapping</t>
   </si>
   <si>
     <t xml:space="preserve">GICS:45102010</t>
@@ -918,10 +939,19 @@
     <t xml:space="preserve">Claim </t>
   </si>
   <si>
-    <t xml:space="preserve">OL: Meta [Form Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OL: Meta [Form Description]</t>
+    <t xml:space="preserve">OL-MN: Meta [Form Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-MD: Meta [Form Description]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-LA: Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-EN: Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-IN: Information</t>
   </si>
   <si>
     <t xml:space="preserve">A form to be used for capturing Visual Inspection Zone data for a Digital Passport</t>
@@ -1056,7 +1086,7 @@
     <t xml:space="preserve">Mandatory identification feature|Identification feature</t>
   </si>
   <si>
-    <t xml:space="preserve">This field shall contain a portrait of the holder. The portrait shall not be larger than 45.0 mm x 35.0 mm_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000B_(1.77 in x 1.38 in) nor smaller than 32.0 mm x 26.0 mm (1.26 in x 1.02 in). The position of the field concerned shall be aligned to the left of Zones II, III and IV. See Doc 9303-3 for additional specifications for the portrait.</t>
+    <t xml:space="preserve">This field shall contain a portrait of the holder. The portrait shall not be larger than 45.0 mm x 35.0 mm_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000b_(1.77 in x 1.38 in) nor smaller than 32.0 mm x 26.0 mm (1.26 in x 1.02 in). The position of the field concerned shall be aligned to the left of Zones II, III and IV. See Doc 9303-3 for additional specifications for the portrait.</t>
   </si>
   <si>
     <t xml:space="preserve">Optional data elements|Optional data elements</t>
@@ -1071,22 +1101,22 @@
     <t xml:space="preserve">Réclamation</t>
   </si>
   <si>
-    <t xml:space="preserve">OL: Méta [Nom de formulaire]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OL: Méta [Description du formulaire]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB: Nom d'attribut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OL: Étiqueter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OL: Entrée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OL: Informations</t>
+    <t xml:space="preserve">OL-MN: Méta [Nom de formulaire]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-MD: Méta [Description du formulaire]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-AN: Nom d'attribut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-LA: Étiqueter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-EN: Entrée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-IN: Informations</t>
   </si>
   <si>
     <t xml:space="preserve">VIZ pour passeport numérique</t>
@@ -1452,7 +1482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="44">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1575,6 +1605,13 @@
       <left style="hair"/>
       <right style="hair"/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="hair"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1746,6 +1783,27 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="hair"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1850,7 +1908,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="112">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2071,23 +2129,23 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2095,27 +2153,31 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2123,15 +2185,39 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2139,87 +2225,115 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="9" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="10" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="7" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="9" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="10" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="9" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="10" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2227,47 +2341,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="9" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="10" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="9" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="10" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="9" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="10" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="7" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2870,9 +2944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>120240</xdr:colOff>
+      <xdr:colOff>119880</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2886,7 +2960,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4060800" y="282240"/>
-          <a:ext cx="2900880" cy="821160"/>
+          <a:ext cx="2900520" cy="820800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4585,8 +4659,8 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4638,537 +4712,537 @@
     </row>
     <row r="3" customFormat="false" ht="27.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="55" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="58" t="s">
+      <c r="G3" s="58" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" s="66" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="s">
+      <c r="H3" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="I3" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="J3" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" s="67" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="67"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="68"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="69" t="s">
+      <c r="A5" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="74"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="B6" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75" t="s">
+      <c r="D6" s="71"/>
+      <c r="E6" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="76"/>
+      <c r="F6" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="77"/>
       <c r="K6" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="75"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="74"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="69" t="s">
+      <c r="D8" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="74"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="75"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="74"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="69" t="s">
+      <c r="D9" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="75"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="74"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="69" t="s">
+      <c r="D10" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="75"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="74"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="69" t="s">
+      <c r="D11" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="73"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="74"/>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="69" t="s">
+      <c r="D12" s="71"/>
+      <c r="E12" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="74"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="74"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="68" t="s">
+      <c r="D14" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="74"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="69" t="s">
+      <c r="E14" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="79"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="74"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="69" t="s">
+      <c r="D15" s="71"/>
+      <c r="E15" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="74"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="69" t="s">
+      <c r="D16" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="74"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="68" t="s">
+      <c r="D17" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="73"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="75"/>
+      <c r="L17" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="D18" s="71"/>
+      <c r="E18" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="79"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="74"/>
-      <c r="L17" s="0" t="s">
+      <c r="D19" s="71"/>
+      <c r="E19" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="73"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="75"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="73" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="78"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="69" t="s">
+      <c r="G20" s="79"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="75"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="74"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="78"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="74"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="69" t="s">
+      <c r="D21" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="73"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="75"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="79"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="75"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="79"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="75"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="74"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="74"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="78"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="74"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="83"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
+      <c r="D24" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="84"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5189,7 +5263,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5209,435 +5283,435 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="87"/>
-      <c r="B1" s="88"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="90" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="103"/>
+      <c r="F6" s="69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="103"/>
+      <c r="F8" s="69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="103"/>
+      <c r="F9" s="69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="103"/>
+      <c r="F10" s="69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="103"/>
+      <c r="F11" s="69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="103"/>
+      <c r="F14" s="69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="103"/>
+      <c r="F16" s="69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="103"/>
+      <c r="F17" s="69" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="103"/>
+      <c r="F18" s="69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="103"/>
+      <c r="F19" s="69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="103"/>
+      <c r="F20" s="69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="90" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="55" t="s">
+      <c r="D21" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="103"/>
+      <c r="F21" s="69" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="56" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="93" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="93" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="90" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="94" t="s">
+      <c r="D22" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="103"/>
+      <c r="F22" s="69" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="96" t="s">
+      <c r="B23" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="D23" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="103"/>
+      <c r="F23" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="96" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="68" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="100"/>
-      <c r="F9" s="68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="100"/>
-      <c r="F10" s="68" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="68" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13" s="100"/>
-      <c r="F13" s="68" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="100"/>
-      <c r="F14" s="68" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="100" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="100"/>
-      <c r="F16" s="68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="68" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="100"/>
-      <c r="F18" s="68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="100"/>
-      <c r="F19" s="68" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="100"/>
-      <c r="F20" s="68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="100"/>
-      <c r="F21" s="68" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="68" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" s="100"/>
-      <c r="F23" s="68" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="103"/>
-      <c r="F24" s="79" t="s">
-        <v>178</v>
+      <c r="D24" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="106"/>
+      <c r="F24" s="80" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5658,8 +5732,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5673,435 +5747,435 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="87"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="104" t="s">
-        <v>179</v>
+      <c r="A1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="108" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="106" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="107" t="s">
-        <v>180</v>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="111" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="93" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="93" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="93" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>186</v>
+      <c r="A3" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="107" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="108" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="94" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="96" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="97" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="96" t="s">
-        <v>191</v>
+      <c r="A4" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="100" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>194</v>
+      <c r="A5" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="68" t="s">
-        <v>196</v>
+      <c r="A6" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="103"/>
+      <c r="F6" s="69" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="68" t="s">
+      <c r="A7" s="101" t="s">
         <v>197</v>
       </c>
-      <c r="E7" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="68" t="s">
+      <c r="B7" s="102" t="s">
         <v>198</v>
       </c>
+      <c r="C7" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="68" t="s">
-        <v>200</v>
+      <c r="A8" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="103"/>
+      <c r="F8" s="69" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B9" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="100"/>
-      <c r="F9" s="68" t="s">
-        <v>202</v>
+      <c r="A9" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="103"/>
+      <c r="F9" s="69" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" s="100"/>
-      <c r="F10" s="68" t="s">
-        <v>204</v>
+      <c r="A10" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="103"/>
+      <c r="F10" s="69" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="68" t="s">
-        <v>206</v>
+      <c r="A11" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="103"/>
+      <c r="F11" s="69" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>208</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>209</v>
+      <c r="A12" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B13" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="E13" s="100"/>
-      <c r="F13" s="68" t="s">
-        <v>211</v>
+      <c r="A13" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="69" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="100"/>
-      <c r="F14" s="68" t="s">
-        <v>213</v>
+      <c r="A14" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="103"/>
+      <c r="F14" s="69" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="E15" s="100" t="s">
-        <v>215</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>216</v>
+      <c r="A15" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16" s="100"/>
-      <c r="F16" s="68" t="s">
-        <v>218</v>
+      <c r="A16" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="103"/>
+      <c r="F16" s="69" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="68" t="s">
+      <c r="A17" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="103"/>
+      <c r="F17" s="69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="103"/>
+      <c r="F18" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="68" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="100"/>
-      <c r="F18" s="68" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="100"/>
-      <c r="F19" s="68" t="s">
-        <v>223</v>
+      <c r="A19" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="103"/>
+      <c r="F19" s="69" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="100"/>
-      <c r="F20" s="68" t="s">
-        <v>225</v>
+      <c r="A20" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" s="103"/>
+      <c r="F20" s="69" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="E21" s="100"/>
-      <c r="F21" s="68" t="s">
-        <v>227</v>
+      <c r="A21" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="103"/>
+      <c r="F21" s="69" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="68" t="s">
-        <v>229</v>
+      <c r="A22" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="103"/>
+      <c r="F22" s="69" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="E23" s="100"/>
-      <c r="F23" s="68" t="s">
-        <v>231</v>
+      <c r="A23" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="103"/>
+      <c r="F23" s="69" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="101" t="s">
-        <v>187</v>
-      </c>
-      <c r="B24" s="102" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>232</v>
-      </c>
-      <c r="E24" s="103"/>
-      <c r="F24" s="79" t="s">
-        <v>233</v>
+      <c r="A24" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="106"/>
+      <c r="F24" s="80" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/examples/swiss_passport/digital_passport.xlsx
+++ b/examples/swiss_passport/digital_passport.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="246">
   <si>
     <t xml:space="preserve">OCA DATA CAPTURE SPECIFICATION</t>
   </si>
@@ -939,10 +939,10 @@
     <t xml:space="preserve">Claim </t>
   </si>
   <si>
-    <t xml:space="preserve">OL-MN: Meta [Form Name]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OL-MD: Meta [Form Description]</t>
+    <t xml:space="preserve">OL-MN: Meta [Attribute Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-MV: Meta [Attribute Value]</t>
   </si>
   <si>
     <t xml:space="preserve">OL-LA: Label</t>
@@ -954,18 +954,24 @@
     <t xml:space="preserve">OL-IN: Information</t>
   </si>
   <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandatory header|Issuing State or organization (in full)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAI:Els6NxGvFfyL5aiBWR3j7YiaS7F4j4O-F0EIlZu-dO0g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the State or organization responsible for issuing the MRP shall be displayed in full.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
     <t xml:space="preserve">A form to be used for capturing Visual Inspection Zone data for a Digital Passport</t>
   </si>
   <si>
-    <t xml:space="preserve">Mandatory header|Issuing State or organization (in full)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAI:Els6NxGvFfyL5aiBWR3j7YiaS7F4j4O-F0EIlZu-dO0g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of the State or organization responsible for issuing the MRP shall be displayed in full.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mandatory header|Document</t>
   </si>
   <si>
@@ -1086,7 +1092,7 @@
     <t xml:space="preserve">Mandatory identification feature|Identification feature</t>
   </si>
   <si>
-    <t xml:space="preserve">This field shall contain a portrait of the holder. The portrait shall not be larger than 45.0 mm x 35.0 mm_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000b_(1.77 in x 1.38 in) nor smaller than 32.0 mm x 26.0 mm (1.26 in x 1.02 in). The position of the field concerned shall be aligned to the left of Zones II, III and IV. See Doc 9303-3 for additional specifications for the portrait.</t>
+    <t xml:space="preserve">This field shall contain a portrait of the holder. The portrait shall not be larger than 45.0 mm x 35.0 mm_x005F_x005F_x005F_x005F_x000b_(1.77 in x 1.38 in) nor smaller than 32.0 mm x 26.0 mm (1.26 in x 1.02 in). The position of the field concerned shall be aligned to the left of Zones II, III and IV. See Doc 9303-3 for additional specifications for the portrait.</t>
   </si>
   <si>
     <t xml:space="preserve">Optional data elements|Optional data elements</t>
@@ -1101,10 +1107,10 @@
     <t xml:space="preserve">Réclamation</t>
   </si>
   <si>
-    <t xml:space="preserve">OL-MN: Méta [Nom de formulaire]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OL-MD: Méta [Description du formulaire]</t>
+    <t xml:space="preserve">OL-MN: Méta [Nom d'attribut]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OL-MV: Méta [Valeur d'attribut]</t>
   </si>
   <si>
     <t xml:space="preserve">CB-AN: Nom d'attribut</t>
@@ -1122,16 +1128,16 @@
     <t xml:space="preserve">VIZ pour passeport numérique</t>
   </si>
   <si>
+    <t xml:space="preserve">En-tête obligatoire|État ou organisme émetteur (au complet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAI:Emj736NIuEKdR-3sfXB4wfPokFzgE7uiRm6EXKaJRyE4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le nom de l'État ou de l'organisme responsable de la délivrance du MRP doit être indiqué en toutes lettres.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Un formulaire à utiliser pour capturer les données de la zone d'inspection visuelle pour un passeport numérique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En-tête obligatoire|État ou organisme émetteur (au complet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAI:Emj736NIuEKdR-3sfXB4wfPokFzgE7uiRm6EXKaJRyE4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le nom de l'État ou de l'organisme responsable de la délivrance du MRP doit être indiqué en toutes lettres.</t>
   </si>
   <si>
     <t xml:space="preserve">En-tête obligatoire|Document</t>
@@ -2944,9 +2950,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>119880</xdr:colOff>
+      <xdr:colOff>119520</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2960,7 +2966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4060800" y="282240"/>
-          <a:ext cx="2900520" cy="820800"/>
+          <a:ext cx="2900160" cy="820440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5263,7 +5269,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5328,10 +5334,10 @@
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="98" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>142</v>
       </c>
       <c r="C4" s="60" t="s">
         <v>96</v>
@@ -5348,370 +5354,294 @@
     </row>
     <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="101" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C5" s="69" t="s">
         <v>100</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E5" s="103" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="102" t="s">
-        <v>142</v>
-      </c>
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="69" t="s">
         <v>102</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E6" s="103"/>
       <c r="F6" s="69" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="102" t="s">
-        <v>142</v>
-      </c>
+      <c r="A7" s="101"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="69" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E7" s="103" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="102" t="s">
-        <v>142</v>
-      </c>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="69" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E8" s="103"/>
       <c r="F8" s="69" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="102" t="s">
-        <v>142</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="101"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="69" t="s">
         <v>110</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E9" s="103"/>
       <c r="F9" s="69" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="102" t="s">
-        <v>142</v>
-      </c>
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="69" t="s">
         <v>111</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E10" s="103"/>
       <c r="F10" s="69" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="102" t="s">
-        <v>142</v>
-      </c>
+      <c r="A11" s="101"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="69" t="s">
         <v>112</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E11" s="103"/>
       <c r="F11" s="69" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="102" t="s">
-        <v>142</v>
-      </c>
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="69" t="s">
         <v>113</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E12" s="103" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="102" t="s">
-        <v>142</v>
-      </c>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="101"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="69" t="s">
         <v>115</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="69" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="102" t="s">
-        <v>142</v>
-      </c>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="101"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="69" t="s">
         <v>118</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="69" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="102" t="s">
-        <v>142</v>
-      </c>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="101"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="69" t="s">
         <v>120</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E15" s="103" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="102" t="s">
-        <v>142</v>
-      </c>
+      <c r="A16" s="101"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="69" t="s">
         <v>122</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E16" s="103"/>
       <c r="F16" s="69" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="102" t="s">
-        <v>142</v>
-      </c>
+      <c r="A17" s="101"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="69" t="s">
         <v>123</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E17" s="103"/>
       <c r="F17" s="69" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="102" t="s">
-        <v>142</v>
-      </c>
+      <c r="A18" s="101"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="69" t="s">
         <v>125</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E18" s="103"/>
       <c r="F18" s="69" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="102" t="s">
-        <v>142</v>
-      </c>
+      <c r="A19" s="101"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="69" t="s">
         <v>126</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E19" s="103"/>
       <c r="F19" s="69" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="102" t="s">
-        <v>142</v>
-      </c>
+      <c r="A20" s="101"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="69" t="s">
         <v>127</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E20" s="103"/>
       <c r="F20" s="69" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="102" t="s">
-        <v>142</v>
-      </c>
+      <c r="A21" s="101"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="69" t="s">
         <v>128</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E21" s="103"/>
       <c r="F21" s="69" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="102" t="s">
-        <v>142</v>
-      </c>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="101"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="69" t="s">
         <v>129</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E22" s="103"/>
       <c r="F22" s="69" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="102" t="s">
-        <v>142</v>
-      </c>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="101"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="69" t="s">
         <v>133</v>
       </c>
       <c r="D23" s="69" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E23" s="103"/>
       <c r="F23" s="69" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="105" t="s">
-        <v>142</v>
-      </c>
+      <c r="A24" s="104"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="80" t="s">
         <v>134</v>
       </c>
       <c r="D24" s="80" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E24" s="106"/>
       <c r="F24" s="80" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5732,8 +5662,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5752,10 +5682,10 @@
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
       <c r="E1" s="107" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F1" s="108" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5764,418 +5694,342 @@
       <c r="C2" s="109"/>
       <c r="D2" s="92"/>
       <c r="E2" s="110" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F2" s="111" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="107" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C3" s="107" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D3" s="107" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E3" s="107" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F3" s="108" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="97" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C4" s="60" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="99" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E4" s="100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F4" s="99" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="101" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C5" s="69" t="s">
         <v>100</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E5" s="103" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="102" t="s">
-        <v>198</v>
-      </c>
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="69" t="s">
         <v>102</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E6" s="103"/>
       <c r="F6" s="69" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="102" t="s">
-        <v>198</v>
-      </c>
+      <c r="A7" s="101"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="69" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E7" s="103" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="102" t="s">
-        <v>198</v>
-      </c>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="69" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E8" s="103"/>
       <c r="F8" s="69" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="102" t="s">
-        <v>198</v>
-      </c>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="101"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="69" t="s">
         <v>110</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E9" s="103"/>
       <c r="F9" s="69" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="70" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="102" t="s">
-        <v>198</v>
-      </c>
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="69" t="s">
         <v>111</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E10" s="103"/>
       <c r="F10" s="69" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" s="102" t="s">
-        <v>198</v>
-      </c>
+      <c r="A11" s="101"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="69" t="s">
         <v>112</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E11" s="103"/>
       <c r="F11" s="69" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="102" t="s">
-        <v>198</v>
-      </c>
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="69" t="s">
         <v>113</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E12" s="103" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" s="102" t="s">
-        <v>198</v>
-      </c>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="101"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="69" t="s">
         <v>115</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="69" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="102" t="s">
-        <v>198</v>
-      </c>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="101"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="69" t="s">
         <v>118</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="69" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="102" t="s">
-        <v>198</v>
-      </c>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="101"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="69" t="s">
         <v>120</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E15" s="103" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="102" t="s">
-        <v>198</v>
-      </c>
+      <c r="A16" s="101"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="69" t="s">
         <v>122</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E16" s="103"/>
       <c r="F16" s="69" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="102" t="s">
-        <v>198</v>
-      </c>
+      <c r="A17" s="101"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="69" t="s">
         <v>123</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E17" s="103"/>
       <c r="F17" s="69" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="102" t="s">
-        <v>198</v>
-      </c>
+      <c r="A18" s="101"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="69" t="s">
         <v>125</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E18" s="103"/>
       <c r="F18" s="69" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="102" t="s">
-        <v>198</v>
-      </c>
+      <c r="A19" s="101"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="69" t="s">
         <v>126</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E19" s="103"/>
       <c r="F19" s="69" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="102" t="s">
-        <v>198</v>
-      </c>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="101"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="69" t="s">
         <v>127</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E20" s="103"/>
       <c r="F20" s="69" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" s="102" t="s">
-        <v>198</v>
-      </c>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="101"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="69" t="s">
         <v>128</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E21" s="103"/>
       <c r="F21" s="69" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B22" s="102" t="s">
-        <v>198</v>
-      </c>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="101"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="69" t="s">
         <v>129</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E22" s="103"/>
       <c r="F22" s="69" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="102" t="s">
-        <v>198</v>
-      </c>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="101"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="69" t="s">
         <v>133</v>
       </c>
       <c r="D23" s="69" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E23" s="103"/>
       <c r="F23" s="69" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="104" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24" s="105" t="s">
-        <v>198</v>
-      </c>
+      <c r="A24" s="104"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="80" t="s">
         <v>134</v>
       </c>
       <c r="D24" s="80" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E24" s="106"/>
       <c r="F24" s="80" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
